--- a/Descargas/R15_Corte De Apelaciones De Santiago_Términos Corte_2020-Noviembre.xlsx
+++ b/Descargas/R15_Corte De Apelaciones De Santiago_Términos Corte_2020-Noviembre.xlsx
@@ -241,7 +241,7 @@
         </is>
       </c>
       <c r="B4" s="65">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5">
@@ -251,7 +251,7 @@
         </is>
       </c>
       <c r="B5" s="65">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="6">
